--- a/biology/Médecine/Moncef_Slaoui/Moncef_Slaoui.xlsx
+++ b/biology/Médecine/Moncef_Slaoui/Moncef_Slaoui.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Moncef Mohamed Slaoui (en arabe: منصف السلاوي, en amazighe: ⵎⵓⵏⵚⴼ ⵙⵍⴰⵡⵉ) est un professeur et chercheur marocain , belge et américain, né le 22 juillet 1959 à Agadir (Maroc)[1] .
-Le 15 mai 2020, il est nommé par Donald Trump coordinateur de la stratégie vaccinale de son administration contre la Covid-19 (programme gouvernemental Operation « Warp Speed »). Cette mission s'achève avec l'arrivée de l'administration Biden en janvier 2021[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moncef Mohamed Slaoui (en arabe: منصف السلاوي, en amazighe: ⵎⵓⵏⵚⴼ ⵙⵍⴰⵡⵉ) est un professeur et chercheur marocain , belge et américain, né le 22 juillet 1959 à Agadir (Maroc) .
+Le 15 mai 2020, il est nommé par Donald Trump coordinateur de la stratégie vaccinale de son administration contre la Covid-19 (programme gouvernemental Operation « Warp Speed »). Cette mission s'achève avec l'arrivée de l'administration Biden en janvier 2021.
 </t>
         </is>
       </c>
@@ -512,15 +524,52 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Moncef Slaoui commence à s'intéresser à la médecine à la suite du décès de sa sœur, atteinte de coqueluche[3],[4].
-Moncef Slaoui est titulaire d’un doctorat en immunologie et en biologie moléculaire préparés à l'Université libre de Bruxelles (ULB)[1]. Il a travaillé trente ans durant dans le groupe pharmaceutique GSK où il a développé des vaccins contre la gastro-entérite infantile à rotavirus et contre le cancer du col utérin, tout en réduisant les effectifs de l'entreprise[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moncef Slaoui commence à s'intéresser à la médecine à la suite du décès de sa sœur, atteinte de coqueluche,.
+Moncef Slaoui est titulaire d’un doctorat en immunologie et en biologie moléculaire préparés à l'Université libre de Bruxelles (ULB). Il a travaillé trente ans durant dans le groupe pharmaceutique GSK où il a développé des vaccins contre la gastro-entérite infantile à rotavirus et contre le cancer du col utérin, tout en réduisant les effectifs de l'entreprise.
 Il est partenaire de Medicxi, une importante société européenne de capital-risque et membre du directoire du groupe de biotechnologies Moderna.
-Il est nommé par le président Donald Trump chef de l'opération Warp Speed (OWS), partenariat public-privé mis en place début avril 2020 par le gouvernement américain pour faciliter et accélérer le développement, la fabrication et la distribution de vaccins, thérapeutiques et diagnostics contre la Covid-19. Il est à ce titre chargé de distribuer les financements publics américains aux entreprises du secteur pharmaceutique[6].
-La sénatrice Elizabeth Warren a dénoncé un conflit d'intérêts, Moncef Slaoui détenant alors pour plus de 10 millions d’euros d’actions dans Moderna[6].
-Distinction
-En 2016, il est reconnu comme l'un des « 50 plus grands leaders mondiaux » du magazine Fortune pour son travail sur les maladies sous-étudiées qui sont courantes dans les pays en développement.
+Il est nommé par le président Donald Trump chef de l'opération Warp Speed (OWS), partenariat public-privé mis en place début avril 2020 par le gouvernement américain pour faciliter et accélérer le développement, la fabrication et la distribution de vaccins, thérapeutiques et diagnostics contre la Covid-19. Il est à ce titre chargé de distribuer les financements publics américains aux entreprises du secteur pharmaceutique.
+La sénatrice Elizabeth Warren a dénoncé un conflit d'intérêts, Moncef Slaoui détenant alors pour plus de 10 millions d’euros d’actions dans Moderna.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Moncef_Slaoui</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Moncef_Slaoui</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Distinction</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2016, il est reconnu comme l'un des « 50 plus grands leaders mondiaux » du magazine Fortune pour son travail sur les maladies sous-étudiées qui sont courantes dans les pays en développement.
 </t>
         </is>
       </c>
